--- a/medicine/Enfance/Maria_Gripe/Maria_Gripe.xlsx
+++ b/medicine/Enfance/Maria_Gripe/Maria_Gripe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Gripe (25 juillet 1923 – 5 avril 2007) est une femme de lettres suédoise, auteur de littérature d'enfance et de jeunesse. Elle est lauréate du prestigieux prix international, le Prix Hans-Christian-Andersen, catégorie Écriture, en 1974.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Gripe est née à Vaxholm. Après ses études, elle commence à écrire des romans pour la jeunesse, dont les couvertures sont presque toutes illustrées par son mari, Harald Gripe.
 Elle rencontre le succès en 1961 avec Je m'appelle Joséphine, qu'elle fera suivre de Hugo et Joséphine et Je suis Hugo. Elle a longtemps vécu à Nyköping.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Fille de Papa Pèlerine (Pappa Pellerins dotter, 1963), traduit du suédois par Kersti et Pierre Chaplet, illustré par Kersti Chaplet, Bibliothèque de l'amitié, 1972 ; Gallimard folio junior, 1994.
 Julie et le papa du soir (Julias hus och nattpappan), Bibliothèque de l'amitié, 1973.
@@ -580,9 +596,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1972 : (international) « Hightly Commended Authors »[1], par l' IBBY, pour l'ensemble de son œuvre
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1972 : (international) « Hightly Commended Authors », par l' IBBY, pour l'ensemble de son œuvre
 1974 : Prix Hans-Christian-Andersen, catégorie Écriture
 1979 : Prix Dobloug
 1985 : Nordic Children's Book Prize (en)
@@ -614,7 +632,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son roman de 1962 Hugo et Joséphine a été adapté au cinéma en 1967 : Hugo et Joséphine. Le Château des enfants volés inspire un autre film en 1998, Glasblåsarns barn (avec Stellan Skarsgård).
 </t>
